--- a/tab/hel_pairwise_permutation_bio.xlsx
+++ b/tab/hel_pairwise_permutation_bio.xlsx
@@ -421,7 +421,7 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="G2">
-        <v>4.098000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -742,7 +742,7 @@
         <v>0.6790000000000001</v>
       </c>
       <c r="G2">
-        <v>4.074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -849,7 +849,7 @@
         <v>0.576</v>
       </c>
       <c r="G2">
-        <v>3.456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
